--- a/src/com/main/Sign/leave.xlsx
+++ b/src/com/main/Sign/leave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28586\Desktop\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28586\Desktop\Attendance-statistics\src\com\main\Sign\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,39 +40,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020.9.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.9.29</t>
+  </si>
+  <si>
+    <t>2020.9.30</t>
+  </si>
+  <si>
+    <t>2020.9.31</t>
+  </si>
+  <si>
+    <t>2020.9.32</t>
+  </si>
+  <si>
+    <t>赵雪、焦长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020.1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.1.7</t>
-  </si>
-  <si>
-    <t>2020.1.8</t>
-  </si>
-  <si>
-    <t>2020.1.9</t>
-  </si>
-  <si>
-    <t>2020.1.10</t>
-  </si>
-  <si>
-    <t>姚贤标、朱孟飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武欣怡、刘佳佳、李永兰、刘诗梦、刘新阳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐利智、刘东旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨巧青、张津源、李汶龙</t>
+    <t>赵雪、焦长春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵雪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,8 +400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,46 +419,46 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
